--- a/project/FSK/measurements/Vout to Pin.xlsx
+++ b/project/FSK/measurements/Vout to Pin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,6 +72,384 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Power In</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Vs. Output Voltage</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.130709757568007"/>
+          <c:y val="0.100884955752212"/>
+          <c:w val="0.697843049491203"/>
+          <c:h val="0.792153508466309"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2.4GHz</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>58.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>845.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2.6GHz</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-50.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-45.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>488.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2123157672"/>
+        <c:axId val="2128192040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2123157672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Input Power Level</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (dBm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2128192040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2128192040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Output</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Voltage (mV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.866970056817144"/>
+              <c:y val="0.416209497595986"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="2123157672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.887115296782798"/>
+          <c:y val="0.128890495435858"/>
+          <c:w val="0.0809937946498409"/>
+          <c:h val="0.088862448609853"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -399,7 +777,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -516,6 +894,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
